--- a/Data/ROY Data/rookies_99_00.xlsx
+++ b/Data/ROY Data/rookies_99_00.xlsx
@@ -876,76 +876,76 @@
         <v>23</v>
       </c>
       <c r="F2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>671</v>
+        <v>27</v>
       </c>
       <c r="H2">
-        <v>19392</v>
+        <v>361</v>
       </c>
       <c r="I2">
-        <v>2450</v>
+        <v>27</v>
       </c>
       <c r="J2">
-        <v>6391</v>
+        <v>95</v>
       </c>
       <c r="K2">
-        <v>996</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>2815</v>
+        <v>14</v>
       </c>
       <c r="M2">
-        <v>903</v>
+        <v>3</v>
       </c>
       <c r="N2">
-        <v>1238</v>
+        <v>4</v>
       </c>
       <c r="O2">
-        <v>247</v>
+        <v>5</v>
       </c>
       <c r="P2">
-        <v>1891</v>
+        <v>23</v>
       </c>
       <c r="Q2">
-        <v>3202</v>
+        <v>70</v>
       </c>
       <c r="R2">
-        <v>813</v>
+        <v>12</v>
       </c>
       <c r="S2">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>1195</v>
+        <v>29</v>
       </c>
       <c r="U2">
-        <v>1408</v>
+        <v>29</v>
       </c>
       <c r="V2">
-        <v>6799</v>
+        <v>60</v>
       </c>
       <c r="W2">
-        <v>0.383</v>
+        <v>0.284</v>
       </c>
       <c r="X2">
-        <v>0.354</v>
+        <v>0.214</v>
       </c>
       <c r="Y2">
-        <v>0.729</v>
+        <v>0.75</v>
       </c>
       <c r="Z2">
-        <v>28.9</v>
+        <v>13.4</v>
       </c>
       <c r="AA2">
-        <v>10.1</v>
+        <v>2.2</v>
       </c>
       <c r="AB2">
-        <v>2.8</v>
+        <v>0.9</v>
       </c>
       <c r="AC2">
-        <v>4.8</v>
+        <v>2.6</v>
       </c>
       <c r="AD2" t="s">
         <v>130</v>
@@ -968,76 +968,76 @@
         <v>25</v>
       </c>
       <c r="F3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>696</v>
+        <v>82</v>
       </c>
       <c r="H3">
-        <v>17304</v>
+        <v>1626</v>
       </c>
       <c r="I3">
-        <v>2479</v>
+        <v>314</v>
       </c>
       <c r="J3">
-        <v>6022</v>
+        <v>741</v>
       </c>
       <c r="K3">
-        <v>934</v>
+        <v>57</v>
       </c>
       <c r="L3">
-        <v>2565</v>
+        <v>163</v>
       </c>
       <c r="M3">
-        <v>971</v>
+        <v>97</v>
       </c>
       <c r="N3">
-        <v>1258</v>
+        <v>133</v>
       </c>
       <c r="O3">
-        <v>194</v>
+        <v>20</v>
       </c>
       <c r="P3">
-        <v>1186</v>
+        <v>126</v>
       </c>
       <c r="Q3">
-        <v>2396</v>
+        <v>306</v>
       </c>
       <c r="R3">
-        <v>465</v>
+        <v>52</v>
       </c>
       <c r="S3">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="T3">
-        <v>1018</v>
+        <v>142</v>
       </c>
       <c r="U3">
-        <v>1284</v>
+        <v>137</v>
       </c>
       <c r="V3">
-        <v>6863</v>
+        <v>782</v>
       </c>
       <c r="W3">
-        <v>0.412</v>
+        <v>0.424</v>
       </c>
       <c r="X3">
-        <v>0.364</v>
+        <v>0.35</v>
       </c>
       <c r="Y3">
-        <v>0.772</v>
+        <v>0.729</v>
       </c>
       <c r="Z3">
-        <v>24.9</v>
+        <v>19.8</v>
       </c>
       <c r="AA3">
-        <v>9.9</v>
+        <v>9.5</v>
       </c>
       <c r="AB3">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="AC3">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="AD3" t="s">
         <v>130</v>
@@ -1060,76 +1060,76 @@
         <v>20</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>142</v>
+        <v>59</v>
       </c>
       <c r="H4">
-        <v>1205</v>
+        <v>484</v>
       </c>
       <c r="I4">
-        <v>137</v>
+        <v>56</v>
       </c>
       <c r="J4">
-        <v>415</v>
+        <v>181</v>
       </c>
       <c r="K4">
+        <v>18</v>
+      </c>
+      <c r="L4">
+        <v>63</v>
+      </c>
+      <c r="M4">
+        <v>24</v>
+      </c>
+      <c r="N4">
+        <v>36</v>
+      </c>
+      <c r="O4">
+        <v>8</v>
+      </c>
+      <c r="P4">
         <v>40</v>
       </c>
-      <c r="L4">
-        <v>157</v>
-      </c>
-      <c r="M4">
-        <v>65</v>
-      </c>
-      <c r="N4">
-        <v>91</v>
-      </c>
-      <c r="O4">
-        <v>17</v>
-      </c>
-      <c r="P4">
-        <v>93</v>
-      </c>
       <c r="Q4">
-        <v>199</v>
+        <v>88</v>
       </c>
       <c r="R4">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="S4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="T4">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="U4">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="V4">
-        <v>379</v>
+        <v>154</v>
       </c>
       <c r="W4">
-        <v>0.33</v>
+        <v>0.309</v>
       </c>
       <c r="X4">
-        <v>0.255</v>
+        <v>0.286</v>
       </c>
       <c r="Y4">
-        <v>0.714</v>
+        <v>0.667</v>
       </c>
       <c r="Z4">
-        <v>8.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AA4">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="AB4">
         <v>0.7</v>
       </c>
       <c r="AC4">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AD4" t="s">
         <v>130</v>
@@ -1152,76 +1152,76 @@
         <v>19</v>
       </c>
       <c r="F5">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>262</v>
+        <v>24</v>
       </c>
       <c r="H5">
-        <v>3847</v>
+        <v>130</v>
       </c>
       <c r="I5">
-        <v>509</v>
+        <v>23</v>
       </c>
       <c r="J5">
-        <v>1221</v>
+        <v>70</v>
       </c>
       <c r="K5">
-        <v>101</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>297</v>
+        <v>12</v>
       </c>
       <c r="M5">
-        <v>334</v>
+        <v>16</v>
       </c>
       <c r="N5">
-        <v>438</v>
+        <v>24</v>
       </c>
       <c r="O5">
-        <v>153</v>
+        <v>4</v>
       </c>
       <c r="P5">
-        <v>582</v>
+        <v>21</v>
       </c>
       <c r="Q5">
-        <v>170</v>
+        <v>3</v>
       </c>
       <c r="R5">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="S5">
-        <v>169</v>
+        <v>5</v>
       </c>
       <c r="T5">
-        <v>258</v>
+        <v>7</v>
       </c>
       <c r="U5">
-        <v>391</v>
+        <v>18</v>
       </c>
       <c r="V5">
-        <v>1453</v>
+        <v>64</v>
       </c>
       <c r="W5">
-        <v>0.417</v>
+        <v>0.329</v>
       </c>
       <c r="X5">
-        <v>0.34</v>
+        <v>0.167</v>
       </c>
       <c r="Y5">
-        <v>0.763</v>
+        <v>0.667</v>
       </c>
       <c r="Z5">
-        <v>14.7</v>
+        <v>5.4</v>
       </c>
       <c r="AA5">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="AB5">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="AC5">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="AD5" t="s">
         <v>130</v>
@@ -1244,76 +1244,73 @@
         <v>23</v>
       </c>
       <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>11</v>
+      </c>
+      <c r="H6">
+        <v>143</v>
+      </c>
+      <c r="I6">
+        <v>16</v>
+      </c>
+      <c r="J6">
+        <v>46</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
         <v>10</v>
       </c>
-      <c r="G6">
-        <v>366</v>
-      </c>
-      <c r="H6">
-        <v>4477</v>
-      </c>
-      <c r="I6">
-        <v>472</v>
-      </c>
-      <c r="J6">
-        <v>1047</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>9</v>
-      </c>
-      <c r="M6">
-        <v>244</v>
-      </c>
       <c r="N6">
-        <v>326</v>
+        <v>14</v>
       </c>
       <c r="O6">
-        <v>316</v>
+        <v>15</v>
       </c>
       <c r="P6">
-        <v>1010</v>
+        <v>32</v>
       </c>
       <c r="Q6">
-        <v>151</v>
+        <v>7</v>
       </c>
       <c r="R6">
-        <v>101</v>
+        <v>3</v>
       </c>
       <c r="S6">
-        <v>358</v>
+        <v>14</v>
       </c>
       <c r="T6">
-        <v>180</v>
+        <v>6</v>
       </c>
       <c r="U6">
-        <v>678</v>
+        <v>23</v>
       </c>
       <c r="V6">
-        <v>1190</v>
+        <v>42</v>
       </c>
       <c r="W6">
-        <v>0.451</v>
-      </c>
-      <c r="X6">
-        <v>0.222</v>
+        <v>0.348</v>
       </c>
       <c r="Y6">
-        <v>0.748</v>
+        <v>0.714</v>
       </c>
       <c r="Z6">
-        <v>12.2</v>
+        <v>13</v>
       </c>
       <c r="AA6">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="AB6">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="AC6">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="AD6" t="s">
         <v>130</v>
@@ -1428,76 +1425,76 @@
         <v>22</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>142</v>
+        <v>46</v>
       </c>
       <c r="H8">
-        <v>1383</v>
+        <v>423</v>
       </c>
       <c r="I8">
-        <v>163</v>
+        <v>49</v>
       </c>
       <c r="J8">
-        <v>403</v>
+        <v>115</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="N8">
-        <v>125</v>
+        <v>38</v>
       </c>
       <c r="O8">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="P8">
-        <v>272</v>
+        <v>85</v>
       </c>
       <c r="Q8">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="R8">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="S8">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="T8">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="U8">
-        <v>155</v>
+        <v>46</v>
       </c>
       <c r="V8">
-        <v>424</v>
+        <v>122</v>
       </c>
       <c r="W8">
-        <v>0.404</v>
+        <v>0.426</v>
       </c>
       <c r="X8">
-        <v>0.182</v>
+        <v>0</v>
       </c>
       <c r="Y8">
-        <v>0.768</v>
+        <v>0.632</v>
       </c>
       <c r="Z8">
-        <v>9.699999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AA8">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="AB8">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AC8">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AD8" t="s">
         <v>130</v>
@@ -1520,76 +1517,76 @@
         <v>24</v>
       </c>
       <c r="F9">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>507</v>
+        <v>52</v>
       </c>
       <c r="H9">
-        <v>6502</v>
+        <v>589</v>
       </c>
       <c r="I9">
-        <v>544</v>
+        <v>46</v>
       </c>
       <c r="J9">
-        <v>1192</v>
+        <v>117</v>
       </c>
       <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>9</v>
+      </c>
+      <c r="M9">
+        <v>38</v>
+      </c>
+      <c r="N9">
+        <v>53</v>
+      </c>
+      <c r="O9">
+        <v>75</v>
+      </c>
+      <c r="P9">
+        <v>114</v>
+      </c>
+      <c r="Q9">
+        <v>20</v>
+      </c>
+      <c r="R9">
+        <v>39</v>
+      </c>
+      <c r="S9">
+        <v>13</v>
+      </c>
+      <c r="T9">
         <v>14</v>
       </c>
-      <c r="L9">
-        <v>68</v>
-      </c>
-      <c r="M9">
-        <v>217</v>
-      </c>
-      <c r="N9">
-        <v>313</v>
-      </c>
-      <c r="O9">
-        <v>506</v>
-      </c>
-      <c r="P9">
-        <v>1060</v>
-      </c>
-      <c r="Q9">
-        <v>250</v>
-      </c>
-      <c r="R9">
-        <v>325</v>
-      </c>
-      <c r="S9">
-        <v>138</v>
-      </c>
-      <c r="T9">
-        <v>168</v>
-      </c>
       <c r="U9">
-        <v>752</v>
+        <v>95</v>
       </c>
       <c r="V9">
-        <v>1319</v>
+        <v>131</v>
       </c>
       <c r="W9">
-        <v>0.456</v>
+        <v>0.393</v>
       </c>
       <c r="X9">
-        <v>0.206</v>
+        <v>0.111</v>
       </c>
       <c r="Y9">
-        <v>0.6929999999999999</v>
+        <v>0.717</v>
       </c>
       <c r="Z9">
-        <v>12.8</v>
+        <v>11.3</v>
       </c>
       <c r="AA9">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="AB9">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AC9">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AD9" t="s">
         <v>130</v>
@@ -1612,25 +1609,25 @@
         <v>26</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H10">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="I10">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J10">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>1</v>
@@ -1639,49 +1636,46 @@
         <v>2</v>
       </c>
       <c r="O10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10">
+        <v>2</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
         <v>5</v>
       </c>
-      <c r="Q10">
-        <v>9</v>
-      </c>
-      <c r="R10">
-        <v>3</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>2</v>
-      </c>
-      <c r="U10">
-        <v>3</v>
-      </c>
-      <c r="V10">
-        <v>15</v>
-      </c>
       <c r="W10">
-        <v>0.636</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y10">
         <v>0.5</v>
       </c>
       <c r="Z10">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="AA10">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="AB10">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AC10">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AD10" t="s">
         <v>130</v>
@@ -1790,76 +1784,76 @@
         <v>20</v>
       </c>
       <c r="F12">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>1058</v>
+        <v>81</v>
       </c>
       <c r="H12">
-        <v>34910</v>
+        <v>2999</v>
       </c>
       <c r="I12">
-        <v>6599</v>
+        <v>630</v>
       </c>
       <c r="J12">
-        <v>13185</v>
+        <v>1306</v>
       </c>
       <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
         <v>2</v>
       </c>
-      <c r="L12">
-        <v>21</v>
-      </c>
       <c r="M12">
-        <v>3627</v>
+        <v>367</v>
       </c>
       <c r="N12">
-        <v>4929</v>
+        <v>536</v>
       </c>
       <c r="O12">
-        <v>3304</v>
+        <v>348</v>
       </c>
       <c r="P12">
-        <v>9040</v>
+        <v>810</v>
       </c>
       <c r="Q12">
-        <v>2184</v>
+        <v>155</v>
       </c>
       <c r="R12">
-        <v>940</v>
+        <v>66</v>
       </c>
       <c r="S12">
-        <v>1828</v>
+        <v>132</v>
       </c>
       <c r="T12">
-        <v>2060</v>
+        <v>228</v>
       </c>
       <c r="U12">
-        <v>3115</v>
+        <v>259</v>
       </c>
       <c r="V12">
-        <v>16827</v>
+        <v>1627</v>
       </c>
       <c r="W12">
-        <v>0.5</v>
+        <v>0.482</v>
       </c>
       <c r="X12">
-        <v>0.095</v>
+        <v>0</v>
       </c>
       <c r="Y12">
-        <v>0.736</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="Z12">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="AA12">
-        <v>15.9</v>
+        <v>20.1</v>
       </c>
       <c r="AB12">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AC12">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="AD12" t="s">
         <v>130</v>
@@ -1882,76 +1876,76 @@
         <v>23</v>
       </c>
       <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>48</v>
+      </c>
+      <c r="H13">
+        <v>923</v>
+      </c>
+      <c r="I13">
+        <v>111</v>
+      </c>
+      <c r="J13">
+        <v>233</v>
+      </c>
+      <c r="K13">
         <v>10</v>
       </c>
-      <c r="G13">
-        <v>570</v>
-      </c>
-      <c r="H13">
-        <v>10895</v>
-      </c>
-      <c r="I13">
-        <v>1120</v>
-      </c>
-      <c r="J13">
-        <v>2491</v>
-      </c>
-      <c r="K13">
-        <v>239</v>
-      </c>
       <c r="L13">
-        <v>716</v>
+        <v>26</v>
       </c>
       <c r="M13">
-        <v>399</v>
+        <v>43</v>
       </c>
       <c r="N13">
-        <v>527</v>
+        <v>63</v>
       </c>
       <c r="O13">
-        <v>457</v>
+        <v>56</v>
       </c>
       <c r="P13">
-        <v>1593</v>
+        <v>174</v>
       </c>
       <c r="Q13">
-        <v>719</v>
+        <v>55</v>
       </c>
       <c r="R13">
-        <v>454</v>
+        <v>38</v>
       </c>
       <c r="S13">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="T13">
-        <v>394</v>
+        <v>36</v>
       </c>
       <c r="U13">
-        <v>1342</v>
+        <v>148</v>
       </c>
       <c r="V13">
-        <v>2878</v>
+        <v>275</v>
       </c>
       <c r="W13">
-        <v>0.45</v>
+        <v>0.476</v>
       </c>
       <c r="X13">
-        <v>0.334</v>
+        <v>0.385</v>
       </c>
       <c r="Y13">
-        <v>0.757</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="Z13">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="AA13">
-        <v>5</v>
+        <v>5.7</v>
       </c>
       <c r="AB13">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="AC13">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="AD13" t="s">
         <v>130</v>
@@ -1974,76 +1968,76 @@
         <v>22</v>
       </c>
       <c r="F14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>230</v>
+        <v>34</v>
       </c>
       <c r="H14">
-        <v>4182</v>
+        <v>386</v>
       </c>
       <c r="I14">
-        <v>630</v>
+        <v>62</v>
       </c>
       <c r="J14">
-        <v>1530</v>
+        <v>151</v>
       </c>
       <c r="K14">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="L14">
-        <v>247</v>
+        <v>29</v>
       </c>
       <c r="M14">
-        <v>138</v>
+        <v>16</v>
       </c>
       <c r="N14">
-        <v>182</v>
+        <v>22</v>
       </c>
       <c r="O14">
-        <v>117</v>
+        <v>10</v>
       </c>
       <c r="P14">
-        <v>598</v>
+        <v>48</v>
       </c>
       <c r="Q14">
-        <v>179</v>
+        <v>21</v>
       </c>
       <c r="R14">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="S14">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="T14">
-        <v>140</v>
+        <v>9</v>
       </c>
       <c r="U14">
-        <v>332</v>
+        <v>44</v>
       </c>
       <c r="V14">
-        <v>1472</v>
+        <v>147</v>
       </c>
       <c r="W14">
-        <v>0.412</v>
+        <v>0.411</v>
       </c>
       <c r="X14">
-        <v>0.3</v>
+        <v>0.241</v>
       </c>
       <c r="Y14">
-        <v>0.758</v>
+        <v>0.727</v>
       </c>
       <c r="Z14">
-        <v>18.2</v>
+        <v>11.4</v>
       </c>
       <c r="AA14">
-        <v>6.4</v>
+        <v>4.3</v>
       </c>
       <c r="AB14">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="AC14">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="AD14" t="s">
         <v>130</v>
@@ -2066,76 +2060,76 @@
         <v>24</v>
       </c>
       <c r="F15">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>623</v>
+        <v>79</v>
       </c>
       <c r="H15">
-        <v>12184</v>
+        <v>1859</v>
       </c>
       <c r="I15">
-        <v>1230</v>
+        <v>201</v>
       </c>
       <c r="J15">
-        <v>3043</v>
+        <v>509</v>
       </c>
       <c r="K15">
-        <v>116</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>464</v>
+        <v>23</v>
       </c>
       <c r="M15">
-        <v>433</v>
+        <v>93</v>
       </c>
       <c r="N15">
-        <v>613</v>
+        <v>124</v>
       </c>
       <c r="O15">
-        <v>244</v>
+        <v>48</v>
       </c>
       <c r="P15">
-        <v>1302</v>
+        <v>199</v>
       </c>
       <c r="Q15">
-        <v>2363</v>
+        <v>378</v>
       </c>
       <c r="R15">
-        <v>601</v>
+        <v>93</v>
       </c>
       <c r="S15">
-        <v>115</v>
+        <v>5</v>
       </c>
       <c r="T15">
-        <v>958</v>
+        <v>173</v>
       </c>
       <c r="U15">
-        <v>1103</v>
+        <v>167</v>
       </c>
       <c r="V15">
-        <v>3009</v>
+        <v>498</v>
       </c>
       <c r="W15">
-        <v>0.404</v>
+        <v>0.395</v>
       </c>
       <c r="X15">
-        <v>0.25</v>
+        <v>0.13</v>
       </c>
       <c r="Y15">
-        <v>0.706</v>
+        <v>0.75</v>
       </c>
       <c r="Z15">
-        <v>19.6</v>
+        <v>23.5</v>
       </c>
       <c r="AA15">
+        <v>6.3</v>
+      </c>
+      <c r="AB15">
+        <v>2.5</v>
+      </c>
+      <c r="AC15">
         <v>4.8</v>
-      </c>
-      <c r="AB15">
-        <v>2.1</v>
-      </c>
-      <c r="AC15">
-        <v>3.8</v>
       </c>
       <c r="AD15" t="s">
         <v>130</v>
@@ -2250,76 +2244,76 @@
         <v>23</v>
       </c>
       <c r="F17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>199</v>
+        <v>75</v>
       </c>
       <c r="H17">
-        <v>3789</v>
+        <v>1793</v>
       </c>
       <c r="I17">
-        <v>521</v>
+        <v>265</v>
       </c>
       <c r="J17">
-        <v>1359</v>
+        <v>655</v>
       </c>
       <c r="K17">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="L17">
-        <v>340</v>
+        <v>151</v>
       </c>
       <c r="M17">
-        <v>230</v>
+        <v>127</v>
       </c>
       <c r="N17">
-        <v>317</v>
+        <v>169</v>
       </c>
       <c r="O17">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="P17">
-        <v>373</v>
+        <v>184</v>
       </c>
       <c r="Q17">
-        <v>534</v>
+        <v>247</v>
       </c>
       <c r="R17">
-        <v>176</v>
+        <v>91</v>
       </c>
       <c r="S17">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="T17">
-        <v>259</v>
+        <v>132</v>
       </c>
       <c r="U17">
-        <v>387</v>
+        <v>174</v>
       </c>
       <c r="V17">
-        <v>1381</v>
+        <v>706</v>
       </c>
       <c r="W17">
-        <v>0.383</v>
+        <v>0.405</v>
       </c>
       <c r="X17">
-        <v>0.321</v>
+        <v>0.325</v>
       </c>
       <c r="Y17">
-        <v>0.726</v>
+        <v>0.751</v>
       </c>
       <c r="Z17">
-        <v>19</v>
+        <v>23.9</v>
       </c>
       <c r="AA17">
-        <v>6.9</v>
+        <v>9.4</v>
       </c>
       <c r="AB17">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="AC17">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="AD17" t="s">
         <v>130</v>
@@ -2342,76 +2336,76 @@
         <v>20</v>
       </c>
       <c r="F18">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>835</v>
+        <v>82</v>
       </c>
       <c r="H18">
-        <v>28592</v>
+        <v>1523</v>
       </c>
       <c r="I18">
-        <v>4888</v>
+        <v>182</v>
       </c>
       <c r="J18">
-        <v>11951</v>
+        <v>433</v>
       </c>
       <c r="K18">
-        <v>1332</v>
+        <v>25</v>
       </c>
       <c r="L18">
-        <v>4159</v>
+        <v>111</v>
       </c>
       <c r="M18">
-        <v>2339</v>
+        <v>97</v>
       </c>
       <c r="N18">
-        <v>3292</v>
+        <v>153</v>
       </c>
       <c r="O18">
-        <v>762</v>
+        <v>48</v>
       </c>
       <c r="P18">
-        <v>3183</v>
+        <v>165</v>
       </c>
       <c r="Q18">
-        <v>6025</v>
+        <v>309</v>
       </c>
       <c r="R18">
-        <v>1530</v>
+        <v>97</v>
       </c>
       <c r="S18">
-        <v>360</v>
+        <v>19</v>
       </c>
       <c r="T18">
-        <v>2308</v>
+        <v>140</v>
       </c>
       <c r="U18">
-        <v>2361</v>
+        <v>201</v>
       </c>
       <c r="V18">
-        <v>13447</v>
+        <v>486</v>
       </c>
       <c r="W18">
-        <v>0.409</v>
+        <v>0.42</v>
       </c>
       <c r="X18">
-        <v>0.32</v>
+        <v>0.225</v>
       </c>
       <c r="Y18">
-        <v>0.711</v>
+        <v>0.634</v>
       </c>
       <c r="Z18">
-        <v>34.2</v>
+        <v>18.6</v>
       </c>
       <c r="AA18">
-        <v>16.1</v>
+        <v>5.9</v>
       </c>
       <c r="AB18">
+        <v>2</v>
+      </c>
+      <c r="AC18">
         <v>3.8</v>
-      </c>
-      <c r="AC18">
-        <v>7.2</v>
       </c>
       <c r="AD18" t="s">
         <v>130</v>
@@ -2434,76 +2428,76 @@
         <v>24</v>
       </c>
       <c r="F19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>82</v>
+        <v>8</v>
       </c>
       <c r="H19">
-        <v>687</v>
+        <v>95</v>
       </c>
       <c r="I19">
-        <v>103</v>
+        <v>17</v>
       </c>
       <c r="J19">
-        <v>277</v>
+        <v>46</v>
       </c>
       <c r="K19">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="M19">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="N19">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="O19">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="P19">
-        <v>133</v>
+        <v>26</v>
       </c>
       <c r="Q19">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="R19">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="S19">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="T19">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="U19">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="V19">
-        <v>253</v>
+        <v>40</v>
       </c>
       <c r="W19">
-        <v>0.372</v>
+        <v>0.37</v>
       </c>
       <c r="X19">
-        <v>0.19</v>
+        <v>0.25</v>
       </c>
       <c r="Y19">
-        <v>0.672</v>
+        <v>0.6</v>
       </c>
       <c r="Z19">
-        <v>8.4</v>
+        <v>11.9</v>
       </c>
       <c r="AA19">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="AB19">
-        <v>1.6</v>
+        <v>3.3</v>
       </c>
       <c r="AC19">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="AD19" t="s">
         <v>130</v>
@@ -2526,73 +2520,70 @@
         <v>24</v>
       </c>
       <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>39</v>
+      </c>
+      <c r="H20">
+        <v>351</v>
+      </c>
+      <c r="I20">
+        <v>41</v>
+      </c>
+      <c r="J20">
+        <v>88</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>43</v>
+      </c>
+      <c r="N20">
+        <v>64</v>
+      </c>
+      <c r="O20">
+        <v>34</v>
+      </c>
+      <c r="P20">
+        <v>92</v>
+      </c>
+      <c r="Q20">
+        <v>8</v>
+      </c>
+      <c r="R20">
+        <v>9</v>
+      </c>
+      <c r="S20">
         <v>4</v>
       </c>
-      <c r="G20">
-        <v>143</v>
-      </c>
-      <c r="H20">
-        <v>1516</v>
-      </c>
-      <c r="I20">
-        <v>165</v>
-      </c>
-      <c r="J20">
-        <v>390</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>180</v>
-      </c>
-      <c r="N20">
-        <v>250</v>
-      </c>
-      <c r="O20">
-        <v>146</v>
-      </c>
-      <c r="P20">
-        <v>383</v>
-      </c>
-      <c r="Q20">
-        <v>31</v>
-      </c>
-      <c r="R20">
-        <v>38</v>
-      </c>
-      <c r="S20">
-        <v>27</v>
-      </c>
       <c r="T20">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="U20">
-        <v>254</v>
+        <v>61</v>
       </c>
       <c r="V20">
-        <v>510</v>
+        <v>125</v>
       </c>
       <c r="W20">
-        <v>0.423</v>
-      </c>
-      <c r="X20">
-        <v>0</v>
+        <v>0.466</v>
       </c>
       <c r="Y20">
-        <v>0.72</v>
+        <v>0.672</v>
       </c>
       <c r="Z20">
-        <v>10.6</v>
+        <v>9</v>
       </c>
       <c r="AA20">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="AB20">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="AC20">
         <v>0.2</v>
@@ -2618,19 +2609,19 @@
         <v>24</v>
       </c>
       <c r="F21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>153</v>
+        <v>31</v>
       </c>
       <c r="H21">
-        <v>2138</v>
+        <v>373</v>
       </c>
       <c r="I21">
-        <v>158</v>
+        <v>38</v>
       </c>
       <c r="J21">
-        <v>341</v>
+        <v>72</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2639,52 +2630,52 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="N21">
-        <v>169</v>
+        <v>30</v>
       </c>
       <c r="O21">
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="P21">
-        <v>601</v>
+        <v>108</v>
       </c>
       <c r="Q21">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="R21">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="S21">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="T21">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="U21">
-        <v>399</v>
+        <v>84</v>
       </c>
       <c r="V21">
-        <v>421</v>
+        <v>91</v>
       </c>
       <c r="W21">
-        <v>0.463</v>
+        <v>0.528</v>
       </c>
       <c r="Y21">
-        <v>0.621</v>
+        <v>0.5</v>
       </c>
       <c r="Z21">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AA21">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="AB21">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="AC21">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="AD21" t="s">
         <v>130</v>
@@ -2707,76 +2698,76 @@
         <v>23</v>
       </c>
       <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>19</v>
+      </c>
+      <c r="H22">
+        <v>86</v>
+      </c>
+      <c r="I22">
         <v>13</v>
       </c>
-      <c r="G22">
-        <v>764</v>
-      </c>
-      <c r="H22">
-        <v>15750</v>
-      </c>
-      <c r="I22">
-        <v>1472</v>
-      </c>
       <c r="J22">
-        <v>2961</v>
+        <v>23</v>
       </c>
       <c r="K22">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>796</v>
+        <v>17</v>
       </c>
       <c r="N22">
-        <v>1295</v>
+        <v>25</v>
       </c>
       <c r="O22">
-        <v>2101</v>
+        <v>12</v>
       </c>
       <c r="P22">
-        <v>5248</v>
+        <v>32</v>
       </c>
       <c r="Q22">
-        <v>703</v>
+        <v>5</v>
       </c>
       <c r="R22">
-        <v>507</v>
+        <v>5</v>
       </c>
       <c r="S22">
-        <v>308</v>
+        <v>1</v>
       </c>
       <c r="T22">
-        <v>613</v>
+        <v>2</v>
       </c>
       <c r="U22">
-        <v>1921</v>
+        <v>18</v>
       </c>
       <c r="V22">
-        <v>3747</v>
+        <v>43</v>
       </c>
       <c r="W22">
-        <v>0.497</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="X22">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="Y22">
-        <v>0.615</v>
+        <v>0.68</v>
       </c>
       <c r="Z22">
-        <v>20.6</v>
+        <v>4.5</v>
       </c>
       <c r="AA22">
-        <v>4.9</v>
+        <v>2.3</v>
       </c>
       <c r="AB22">
-        <v>6.9</v>
+        <v>1.7</v>
       </c>
       <c r="AC22">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="AD22" t="s">
         <v>130</v>
@@ -2799,76 +2790,76 @@
         <v>22</v>
       </c>
       <c r="F23">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>576</v>
+        <v>77</v>
       </c>
       <c r="H23">
-        <v>21632</v>
+        <v>2776</v>
       </c>
       <c r="I23">
-        <v>3543</v>
+        <v>497</v>
       </c>
       <c r="J23">
-        <v>8267</v>
+        <v>1117</v>
       </c>
       <c r="K23">
-        <v>575</v>
+        <v>107</v>
       </c>
       <c r="L23">
-        <v>1684</v>
+        <v>310</v>
       </c>
       <c r="M23">
-        <v>2785</v>
+        <v>287</v>
       </c>
       <c r="N23">
-        <v>3494</v>
+        <v>365</v>
       </c>
       <c r="O23">
-        <v>960</v>
+        <v>152</v>
       </c>
       <c r="P23">
-        <v>3215</v>
+        <v>409</v>
       </c>
       <c r="Q23">
-        <v>3473</v>
+        <v>507</v>
       </c>
       <c r="R23">
-        <v>846</v>
+        <v>118</v>
       </c>
       <c r="S23">
-        <v>223</v>
+        <v>29</v>
       </c>
       <c r="T23">
-        <v>2030</v>
+        <v>306</v>
       </c>
       <c r="U23">
-        <v>1813</v>
+        <v>231</v>
       </c>
       <c r="V23">
-        <v>10446</v>
+        <v>1388</v>
       </c>
       <c r="W23">
-        <v>0.429</v>
+        <v>0.445</v>
       </c>
       <c r="X23">
-        <v>0.341</v>
+        <v>0.345</v>
       </c>
       <c r="Y23">
-        <v>0.797</v>
+        <v>0.786</v>
       </c>
       <c r="Z23">
-        <v>37.6</v>
+        <v>36.1</v>
       </c>
       <c r="AA23">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="AB23">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="AC23">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="AD23" t="s">
         <v>130</v>
@@ -2891,76 +2882,76 @@
         <v>22</v>
       </c>
       <c r="F24">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>630</v>
+        <v>49</v>
       </c>
       <c r="H24">
-        <v>11682</v>
+        <v>345</v>
       </c>
       <c r="I24">
-        <v>1318</v>
+        <v>56</v>
       </c>
       <c r="J24">
-        <v>3360</v>
+        <v>144</v>
       </c>
       <c r="K24">
-        <v>427</v>
+        <v>16</v>
       </c>
       <c r="L24">
-        <v>1246</v>
+        <v>47</v>
       </c>
       <c r="M24">
-        <v>473</v>
+        <v>27</v>
       </c>
       <c r="N24">
-        <v>656</v>
+        <v>41</v>
       </c>
       <c r="O24">
-        <v>546</v>
+        <v>29</v>
       </c>
       <c r="P24">
-        <v>1975</v>
+        <v>75</v>
       </c>
       <c r="Q24">
-        <v>543</v>
+        <v>12</v>
       </c>
       <c r="R24">
-        <v>436</v>
+        <v>10</v>
       </c>
       <c r="S24">
-        <v>230</v>
+        <v>4</v>
       </c>
       <c r="T24">
-        <v>447</v>
+        <v>21</v>
       </c>
       <c r="U24">
-        <v>1270</v>
+        <v>54</v>
       </c>
       <c r="V24">
-        <v>3536</v>
+        <v>155</v>
       </c>
       <c r="W24">
-        <v>0.392</v>
+        <v>0.389</v>
       </c>
       <c r="X24">
-        <v>0.343</v>
+        <v>0.34</v>
       </c>
       <c r="Y24">
-        <v>0.721</v>
+        <v>0.659</v>
       </c>
       <c r="Z24">
-        <v>18.5</v>
+        <v>7</v>
       </c>
       <c r="AA24">
-        <v>5.6</v>
+        <v>3.2</v>
       </c>
       <c r="AB24">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="AC24">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="AD24" t="s">
         <v>130</v>
@@ -2983,76 +2974,76 @@
         <v>21</v>
       </c>
       <c r="F25">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>294</v>
+        <v>30</v>
       </c>
       <c r="H25">
-        <v>6132</v>
+        <v>446</v>
       </c>
       <c r="I25">
-        <v>914</v>
+        <v>66</v>
       </c>
       <c r="J25">
-        <v>2222</v>
+        <v>171</v>
       </c>
       <c r="K25">
-        <v>148</v>
+        <v>12</v>
       </c>
       <c r="L25">
-        <v>467</v>
+        <v>45</v>
       </c>
       <c r="M25">
-        <v>431</v>
+        <v>51</v>
       </c>
       <c r="N25">
-        <v>570</v>
+        <v>70</v>
       </c>
       <c r="O25">
-        <v>213</v>
+        <v>15</v>
       </c>
       <c r="P25">
-        <v>897</v>
+        <v>38</v>
       </c>
       <c r="Q25">
-        <v>455</v>
+        <v>27</v>
       </c>
       <c r="R25">
-        <v>233</v>
+        <v>15</v>
       </c>
       <c r="S25">
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="T25">
-        <v>370</v>
+        <v>28</v>
       </c>
       <c r="U25">
-        <v>487</v>
+        <v>28</v>
       </c>
       <c r="V25">
-        <v>2407</v>
+        <v>195</v>
       </c>
       <c r="W25">
-        <v>0.411</v>
+        <v>0.386</v>
       </c>
       <c r="X25">
-        <v>0.317</v>
+        <v>0.267</v>
       </c>
       <c r="Y25">
-        <v>0.756</v>
+        <v>0.729</v>
       </c>
       <c r="Z25">
-        <v>20.9</v>
+        <v>14.9</v>
       </c>
       <c r="AA25">
-        <v>8.199999999999999</v>
+        <v>6.5</v>
       </c>
       <c r="AB25">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="AC25">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="AD25" t="s">
         <v>130</v>
@@ -3075,76 +3066,76 @@
         <v>25</v>
       </c>
       <c r="F26">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>477</v>
+        <v>72</v>
       </c>
       <c r="H26">
-        <v>7997</v>
+        <v>1927</v>
       </c>
       <c r="I26">
-        <v>785</v>
+        <v>175</v>
       </c>
       <c r="J26">
-        <v>1794</v>
+        <v>413</v>
       </c>
       <c r="K26">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="L26">
-        <v>180</v>
+        <v>57</v>
       </c>
       <c r="M26">
-        <v>299</v>
+        <v>119</v>
       </c>
       <c r="N26">
-        <v>392</v>
+        <v>158</v>
       </c>
       <c r="O26">
-        <v>507</v>
+        <v>128</v>
       </c>
       <c r="P26">
-        <v>1512</v>
+        <v>372</v>
       </c>
       <c r="Q26">
-        <v>653</v>
+        <v>177</v>
       </c>
       <c r="R26">
-        <v>436</v>
+        <v>116</v>
       </c>
       <c r="S26">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="T26">
-        <v>331</v>
+        <v>93</v>
       </c>
       <c r="U26">
-        <v>879</v>
+        <v>222</v>
       </c>
       <c r="V26">
-        <v>1919</v>
+        <v>485</v>
       </c>
       <c r="W26">
-        <v>0.438</v>
+        <v>0.424</v>
       </c>
       <c r="X26">
-        <v>0.278</v>
+        <v>0.281</v>
       </c>
       <c r="Y26">
-        <v>0.763</v>
+        <v>0.753</v>
       </c>
       <c r="Z26">
-        <v>16.8</v>
+        <v>26.8</v>
       </c>
       <c r="AA26">
-        <v>4</v>
+        <v>6.7</v>
       </c>
       <c r="AB26">
-        <v>3.2</v>
+        <v>5.2</v>
       </c>
       <c r="AC26">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="AD26" t="s">
         <v>130</v>
@@ -3167,76 +3158,76 @@
         <v>21</v>
       </c>
       <c r="F27">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>921</v>
+        <v>71</v>
       </c>
       <c r="H27">
-        <v>29559</v>
+        <v>1373</v>
       </c>
       <c r="I27">
-        <v>5969</v>
+        <v>254</v>
       </c>
       <c r="J27">
-        <v>13288</v>
+        <v>605</v>
       </c>
       <c r="K27">
-        <v>530</v>
+        <v>28</v>
       </c>
       <c r="L27">
-        <v>1530</v>
+        <v>77</v>
       </c>
       <c r="M27">
-        <v>3240</v>
+        <v>103</v>
       </c>
       <c r="N27">
-        <v>3805</v>
+        <v>133</v>
       </c>
       <c r="O27">
-        <v>794</v>
+        <v>38</v>
       </c>
       <c r="P27">
-        <v>2852</v>
+        <v>129</v>
       </c>
       <c r="Q27">
-        <v>3125</v>
+        <v>108</v>
       </c>
       <c r="R27">
-        <v>714</v>
+        <v>28</v>
       </c>
       <c r="S27">
-        <v>131</v>
+        <v>6</v>
       </c>
       <c r="T27">
-        <v>1977</v>
+        <v>84</v>
       </c>
       <c r="U27">
-        <v>2329</v>
+        <v>142</v>
       </c>
       <c r="V27">
-        <v>15708</v>
+        <v>639</v>
       </c>
       <c r="W27">
-        <v>0.449</v>
+        <v>0.42</v>
       </c>
       <c r="X27">
-        <v>0.346</v>
+        <v>0.364</v>
       </c>
       <c r="Y27">
-        <v>0.852</v>
+        <v>0.774</v>
       </c>
       <c r="Z27">
-        <v>32.1</v>
+        <v>19.3</v>
       </c>
       <c r="AA27">
-        <v>17.1</v>
+        <v>9</v>
       </c>
       <c r="AB27">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="AC27">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="AD27" t="s">
         <v>130</v>
@@ -3259,76 +3250,76 @@
         <v>24</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="H28">
-        <v>1005</v>
+        <v>597</v>
       </c>
       <c r="I28">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="J28">
-        <v>220</v>
+        <v>124</v>
       </c>
       <c r="K28">
+        <v>24</v>
+      </c>
+      <c r="L28">
+        <v>67</v>
+      </c>
+      <c r="M28">
+        <v>27</v>
+      </c>
+      <c r="N28">
         <v>40</v>
       </c>
-      <c r="L28">
-        <v>122</v>
-      </c>
-      <c r="M28">
-        <v>36</v>
-      </c>
-      <c r="N28">
+      <c r="O28">
+        <v>12</v>
+      </c>
+      <c r="P28">
         <v>52</v>
       </c>
-      <c r="O28">
-        <v>16</v>
-      </c>
-      <c r="P28">
-        <v>73</v>
-      </c>
       <c r="Q28">
-        <v>167</v>
+        <v>111</v>
       </c>
       <c r="R28">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="S28">
         <v>2</v>
       </c>
       <c r="T28">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="U28">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="V28">
-        <v>224</v>
+        <v>141</v>
       </c>
       <c r="W28">
-        <v>0.336</v>
+        <v>0.363</v>
       </c>
       <c r="X28">
-        <v>0.328</v>
+        <v>0.358</v>
       </c>
       <c r="Y28">
-        <v>0.6919999999999999</v>
+        <v>0.675</v>
       </c>
       <c r="Z28">
-        <v>14.4</v>
+        <v>13.3</v>
       </c>
       <c r="AA28">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AB28">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AC28">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AD28" t="s">
         <v>130</v>
@@ -3529,76 +3520,76 @@
         <v>23</v>
       </c>
       <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>7</v>
+      </c>
+      <c r="H31">
+        <v>73</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>11</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
         <v>5</v>
       </c>
-      <c r="G31">
-        <v>135</v>
-      </c>
-      <c r="H31">
-        <v>1344</v>
-      </c>
-      <c r="I31">
-        <v>89</v>
-      </c>
-      <c r="J31">
-        <v>222</v>
-      </c>
-      <c r="K31">
+      <c r="N31">
+        <v>8</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="P31">
+        <v>11</v>
+      </c>
+      <c r="Q31">
+        <v>4</v>
+      </c>
+      <c r="R31">
         <v>3</v>
       </c>
-      <c r="L31">
-        <v>19</v>
-      </c>
-      <c r="M31">
-        <v>81</v>
-      </c>
-      <c r="N31">
-        <v>114</v>
-      </c>
-      <c r="O31">
-        <v>34</v>
-      </c>
-      <c r="P31">
-        <v>145</v>
-      </c>
-      <c r="Q31">
-        <v>184</v>
-      </c>
-      <c r="R31">
-        <v>42</v>
-      </c>
       <c r="S31">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="T31">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="U31">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="V31">
-        <v>262</v>
+        <v>7</v>
       </c>
       <c r="W31">
-        <v>0.401</v>
+        <v>0.091</v>
       </c>
       <c r="X31">
-        <v>0.158</v>
+        <v>0</v>
       </c>
       <c r="Y31">
-        <v>0.711</v>
+        <v>0.625</v>
       </c>
       <c r="Z31">
-        <v>10</v>
+        <v>10.4</v>
       </c>
       <c r="AA31">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="AB31">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="AC31">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="AD31" t="s">
         <v>130</v>
@@ -3621,76 +3612,73 @@
         <v>23</v>
       </c>
       <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>4</v>
+      </c>
+      <c r="H32">
+        <v>23</v>
+      </c>
+      <c r="I32">
+        <v>5</v>
+      </c>
+      <c r="J32">
+        <v>14</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
         <v>3</v>
       </c>
-      <c r="G32">
-        <v>43</v>
-      </c>
-      <c r="H32">
-        <v>261</v>
-      </c>
-      <c r="I32">
-        <v>26</v>
-      </c>
-      <c r="J32">
-        <v>79</v>
-      </c>
-      <c r="K32">
-        <v>1</v>
-      </c>
-      <c r="L32">
+      <c r="O32">
         <v>3</v>
       </c>
-      <c r="M32">
-        <v>15</v>
-      </c>
-      <c r="N32">
-        <v>23</v>
-      </c>
-      <c r="O32">
-        <v>23</v>
-      </c>
       <c r="P32">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="Q32">
+        <v>2</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>3</v>
+      </c>
+      <c r="T32">
+        <v>2</v>
+      </c>
+      <c r="U32">
+        <v>1</v>
+      </c>
+      <c r="V32">
         <v>11</v>
       </c>
-      <c r="R32">
-        <v>2</v>
-      </c>
-      <c r="S32">
-        <v>9</v>
-      </c>
-      <c r="T32">
-        <v>13</v>
-      </c>
-      <c r="U32">
-        <v>33</v>
-      </c>
-      <c r="V32">
-        <v>68</v>
-      </c>
       <c r="W32">
-        <v>0.329</v>
-      </c>
-      <c r="X32">
+        <v>0.357</v>
+      </c>
+      <c r="Y32">
         <v>0.333</v>
       </c>
-      <c r="Y32">
-        <v>0.652</v>
-      </c>
       <c r="Z32">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="AA32">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="AB32">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AC32">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="AD32" t="s">
         <v>130</v>
@@ -3713,70 +3701,70 @@
         <v>23</v>
       </c>
       <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>12</v>
+      </c>
+      <c r="H33">
+        <v>74</v>
+      </c>
+      <c r="I33">
+        <v>7</v>
+      </c>
+      <c r="J33">
+        <v>20</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>4</v>
+      </c>
+      <c r="N33">
+        <v>18</v>
+      </c>
+      <c r="O33">
+        <v>16</v>
+      </c>
+      <c r="P33">
+        <v>21</v>
+      </c>
+      <c r="Q33">
+        <v>4</v>
+      </c>
+      <c r="R33">
         <v>2</v>
       </c>
-      <c r="G33">
-        <v>37</v>
-      </c>
-      <c r="H33">
-        <v>250</v>
-      </c>
-      <c r="I33">
-        <v>29</v>
-      </c>
-      <c r="J33">
-        <v>63</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33">
-        <v>14</v>
-      </c>
-      <c r="N33">
-        <v>33</v>
-      </c>
-      <c r="O33">
-        <v>40</v>
-      </c>
-      <c r="P33">
-        <v>60</v>
-      </c>
-      <c r="Q33">
-        <v>10</v>
-      </c>
-      <c r="R33">
-        <v>7</v>
-      </c>
       <c r="S33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T33">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="U33">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="V33">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="W33">
-        <v>0.46</v>
+        <v>0.35</v>
       </c>
       <c r="Y33">
-        <v>0.424</v>
+        <v>0.222</v>
       </c>
       <c r="Z33">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="AA33">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="AB33">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="AC33">
         <v>0.3</v>
@@ -3888,76 +3876,76 @@
         <v>20</v>
       </c>
       <c r="F35">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>471</v>
+        <v>33</v>
       </c>
       <c r="H35">
-        <v>9780</v>
+        <v>138</v>
       </c>
       <c r="I35">
-        <v>1294</v>
+        <v>22</v>
       </c>
       <c r="J35">
-        <v>3052</v>
+        <v>58</v>
       </c>
       <c r="K35">
-        <v>425</v>
+        <v>2</v>
       </c>
       <c r="L35">
-        <v>1218</v>
+        <v>4</v>
       </c>
       <c r="M35">
-        <v>312</v>
+        <v>11</v>
       </c>
       <c r="N35">
-        <v>443</v>
+        <v>18</v>
       </c>
       <c r="O35">
-        <v>552</v>
+        <v>16</v>
       </c>
       <c r="P35">
-        <v>1987</v>
+        <v>38</v>
       </c>
       <c r="Q35">
-        <v>408</v>
+        <v>5</v>
       </c>
       <c r="R35">
-        <v>307</v>
+        <v>6</v>
       </c>
       <c r="S35">
-        <v>144</v>
+        <v>5</v>
       </c>
       <c r="T35">
-        <v>388</v>
+        <v>14</v>
       </c>
       <c r="U35">
-        <v>870</v>
+        <v>10</v>
       </c>
       <c r="V35">
-        <v>3325</v>
+        <v>57</v>
       </c>
       <c r="W35">
-        <v>0.424</v>
+        <v>0.379</v>
       </c>
       <c r="X35">
-        <v>0.349</v>
+        <v>0.5</v>
       </c>
       <c r="Y35">
-        <v>0.704</v>
+        <v>0.611</v>
       </c>
       <c r="Z35">
-        <v>20.8</v>
+        <v>4.2</v>
       </c>
       <c r="AA35">
-        <v>7.1</v>
+        <v>1.7</v>
       </c>
       <c r="AB35">
-        <v>4.2</v>
+        <v>1.2</v>
       </c>
       <c r="AC35">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="AD35" t="s">
         <v>130</v>
@@ -3980,13 +3968,13 @@
         <v>22</v>
       </c>
       <c r="F36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H36">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="I36">
         <v>13</v>
@@ -4013,7 +4001,7 @@
         <v>34</v>
       </c>
       <c r="Q36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R36">
         <v>4</v>
@@ -4022,7 +4010,7 @@
         <v>3</v>
       </c>
       <c r="T36">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="U36">
         <v>20</v>
@@ -4037,16 +4025,16 @@
         <v>0.667</v>
       </c>
       <c r="Z36">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="AA36">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AB36">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AC36">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AD36" t="s">
         <v>130</v>
@@ -4069,76 +4057,76 @@
         <v>23</v>
       </c>
       <c r="F37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="H37">
-        <v>1738</v>
+        <v>145</v>
       </c>
       <c r="I37">
-        <v>220</v>
+        <v>15</v>
       </c>
       <c r="J37">
-        <v>529</v>
+        <v>40</v>
       </c>
       <c r="K37">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="L37">
-        <v>217</v>
+        <v>19</v>
       </c>
       <c r="M37">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="N37">
-        <v>133</v>
+        <v>11</v>
       </c>
       <c r="O37">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="P37">
-        <v>159</v>
+        <v>15</v>
       </c>
       <c r="Q37">
-        <v>152</v>
+        <v>11</v>
       </c>
       <c r="R37">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="S37">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="T37">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="U37">
-        <v>179</v>
+        <v>16</v>
       </c>
       <c r="V37">
-        <v>647</v>
+        <v>49</v>
       </c>
       <c r="W37">
-        <v>0.416</v>
+        <v>0.375</v>
       </c>
       <c r="X37">
-        <v>0.396</v>
+        <v>0.421</v>
       </c>
       <c r="Y37">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="Z37">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="AA37">
-        <v>5.4</v>
+        <v>4.9</v>
       </c>
       <c r="AB37">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="AC37">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="AD37" t="s">
         <v>130</v>
@@ -4161,76 +4149,76 @@
         <v>22</v>
       </c>
       <c r="F38">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G38">
-        <v>159</v>
+        <v>74</v>
       </c>
       <c r="H38">
-        <v>1853</v>
+        <v>896</v>
       </c>
       <c r="I38">
-        <v>232</v>
+        <v>111</v>
       </c>
       <c r="J38">
-        <v>584</v>
+        <v>298</v>
       </c>
       <c r="K38">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="L38">
-        <v>111</v>
+        <v>63</v>
       </c>
       <c r="M38">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="N38">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="O38">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="P38">
-        <v>210</v>
+        <v>113</v>
       </c>
       <c r="Q38">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="R38">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="S38">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="T38">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="U38">
-        <v>335</v>
+        <v>158</v>
       </c>
       <c r="V38">
-        <v>567</v>
+        <v>283</v>
       </c>
       <c r="W38">
-        <v>0.397</v>
+        <v>0.372</v>
       </c>
       <c r="X38">
-        <v>0.333</v>
+        <v>0.365</v>
       </c>
       <c r="Y38">
-        <v>0.71</v>
+        <v>0.731</v>
       </c>
       <c r="Z38">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="AA38">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="AB38">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="AC38">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AD38" t="s">
         <v>130</v>
@@ -4253,19 +4241,19 @@
         <v>24</v>
       </c>
       <c r="F39">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G39">
-        <v>223</v>
+        <v>56</v>
       </c>
       <c r="H39">
-        <v>3439</v>
+        <v>528</v>
       </c>
       <c r="I39">
-        <v>568</v>
+        <v>89</v>
       </c>
       <c r="J39">
-        <v>1049</v>
+        <v>161</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -4274,52 +4262,52 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>233</v>
+        <v>28</v>
       </c>
       <c r="N39">
-        <v>363</v>
+        <v>54</v>
       </c>
       <c r="O39">
-        <v>340</v>
+        <v>48</v>
       </c>
       <c r="P39">
-        <v>888</v>
+        <v>146</v>
       </c>
       <c r="Q39">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="R39">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="S39">
-        <v>177</v>
+        <v>37</v>
       </c>
       <c r="T39">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="U39">
-        <v>478</v>
+        <v>94</v>
       </c>
       <c r="V39">
-        <v>1369</v>
+        <v>206</v>
       </c>
       <c r="W39">
-        <v>0.541</v>
+        <v>0.553</v>
       </c>
       <c r="Y39">
-        <v>0.642</v>
+        <v>0.519</v>
       </c>
       <c r="Z39">
-        <v>15.4</v>
+        <v>9.4</v>
       </c>
       <c r="AA39">
-        <v>6.1</v>
+        <v>3.7</v>
       </c>
       <c r="AB39">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="AC39">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AD39" t="s">
         <v>130</v>
@@ -4342,76 +4330,76 @@
         <v>20</v>
       </c>
       <c r="F40">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G40">
-        <v>827</v>
+        <v>77</v>
       </c>
       <c r="H40">
-        <v>23358</v>
+        <v>1370</v>
       </c>
       <c r="I40">
-        <v>4065</v>
+        <v>224</v>
       </c>
       <c r="J40">
-        <v>8969</v>
+        <v>469</v>
       </c>
       <c r="K40">
-        <v>463</v>
+        <v>2</v>
       </c>
       <c r="L40">
-        <v>1431</v>
+        <v>11</v>
       </c>
       <c r="M40">
-        <v>4605</v>
+        <v>196</v>
       </c>
       <c r="N40">
-        <v>5599</v>
+        <v>261</v>
       </c>
       <c r="O40">
-        <v>915</v>
+        <v>123</v>
       </c>
       <c r="P40">
-        <v>4022</v>
+        <v>303</v>
       </c>
       <c r="Q40">
-        <v>1696</v>
+        <v>61</v>
       </c>
       <c r="R40">
-        <v>590</v>
+        <v>24</v>
       </c>
       <c r="S40">
-        <v>139</v>
+        <v>26</v>
       </c>
       <c r="T40">
-        <v>1874</v>
+        <v>138</v>
       </c>
       <c r="U40">
-        <v>2338</v>
+        <v>169</v>
       </c>
       <c r="V40">
-        <v>13198</v>
+        <v>646</v>
       </c>
       <c r="W40">
-        <v>0.453</v>
+        <v>0.478</v>
       </c>
       <c r="X40">
-        <v>0.324</v>
+        <v>0.182</v>
       </c>
       <c r="Y40">
-        <v>0.822</v>
+        <v>0.751</v>
       </c>
       <c r="Z40">
-        <v>28.2</v>
+        <v>17.8</v>
       </c>
       <c r="AA40">
-        <v>16</v>
+        <v>8.4</v>
       </c>
       <c r="AB40">
-        <v>4.9</v>
+        <v>3.9</v>
       </c>
       <c r="AC40">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="AD40" t="s">
         <v>130</v>
@@ -4434,76 +4422,76 @@
         <v>21</v>
       </c>
       <c r="F41">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G41">
-        <v>1163</v>
+        <v>51</v>
       </c>
       <c r="H41">
-        <v>40097</v>
+        <v>1260</v>
       </c>
       <c r="I41">
-        <v>7289</v>
+        <v>222</v>
       </c>
       <c r="J41">
-        <v>15056</v>
+        <v>471</v>
       </c>
       <c r="K41">
-        <v>791</v>
+        <v>4</v>
       </c>
       <c r="L41">
-        <v>2390</v>
+        <v>22</v>
       </c>
       <c r="M41">
-        <v>2331</v>
+        <v>72</v>
       </c>
       <c r="N41">
-        <v>2877</v>
+        <v>85</v>
       </c>
       <c r="O41">
-        <v>2732</v>
+        <v>105</v>
       </c>
       <c r="P41">
-        <v>10101</v>
+        <v>332</v>
       </c>
       <c r="Q41">
-        <v>2198</v>
+        <v>69</v>
       </c>
       <c r="R41">
-        <v>1759</v>
+        <v>38</v>
       </c>
       <c r="S41">
-        <v>1233</v>
+        <v>53</v>
       </c>
       <c r="T41">
-        <v>1750</v>
+        <v>51</v>
       </c>
       <c r="U41">
-        <v>2535</v>
+        <v>113</v>
       </c>
       <c r="V41">
-        <v>17700</v>
+        <v>520</v>
       </c>
       <c r="W41">
-        <v>0.484</v>
+        <v>0.471</v>
       </c>
       <c r="X41">
-        <v>0.331</v>
+        <v>0.182</v>
       </c>
       <c r="Y41">
-        <v>0.8100000000000001</v>
+        <v>0.847</v>
       </c>
       <c r="Z41">
-        <v>34.5</v>
+        <v>24.7</v>
       </c>
       <c r="AA41">
-        <v>15.2</v>
+        <v>10.2</v>
       </c>
       <c r="AB41">
-        <v>8.699999999999999</v>
+        <v>6.5</v>
       </c>
       <c r="AC41">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="AD41" t="s">
         <v>130</v>
@@ -4526,76 +4514,76 @@
         <v>23</v>
       </c>
       <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>82</v>
+      </c>
+      <c r="H42">
+        <v>2093</v>
+      </c>
+      <c r="I42">
+        <v>339</v>
+      </c>
+      <c r="J42">
+        <v>755</v>
+      </c>
+      <c r="K42">
+        <v>10</v>
+      </c>
+      <c r="L42">
+        <v>49</v>
+      </c>
+      <c r="M42">
+        <v>226</v>
+      </c>
+      <c r="N42">
+        <v>292</v>
+      </c>
+      <c r="O42">
+        <v>85</v>
+      </c>
+      <c r="P42">
+        <v>280</v>
+      </c>
+      <c r="Q42">
+        <v>476</v>
+      </c>
+      <c r="R42">
+        <v>84</v>
+      </c>
+      <c r="S42">
         <v>17</v>
       </c>
-      <c r="G42">
-        <v>1304</v>
-      </c>
-      <c r="H42">
-        <v>40268</v>
-      </c>
-      <c r="I42">
-        <v>6035</v>
-      </c>
-      <c r="J42">
-        <v>13104</v>
-      </c>
-      <c r="K42">
-        <v>193</v>
-      </c>
-      <c r="L42">
-        <v>888</v>
-      </c>
-      <c r="M42">
-        <v>4015</v>
-      </c>
-      <c r="N42">
-        <v>4975</v>
-      </c>
-      <c r="O42">
-        <v>1373</v>
-      </c>
-      <c r="P42">
-        <v>4795</v>
-      </c>
-      <c r="Q42">
-        <v>8524</v>
-      </c>
-      <c r="R42">
-        <v>1546</v>
-      </c>
-      <c r="S42">
-        <v>227</v>
-      </c>
       <c r="T42">
-        <v>3121</v>
+        <v>166</v>
       </c>
       <c r="U42">
-        <v>2882</v>
+        <v>194</v>
       </c>
       <c r="V42">
-        <v>16278</v>
+        <v>914</v>
       </c>
       <c r="W42">
-        <v>0.461</v>
+        <v>0.449</v>
       </c>
       <c r="X42">
-        <v>0.217</v>
+        <v>0.204</v>
       </c>
       <c r="Y42">
-        <v>0.8070000000000001</v>
+        <v>0.774</v>
       </c>
       <c r="Z42">
-        <v>30.9</v>
+        <v>25.5</v>
       </c>
       <c r="AA42">
-        <v>12.5</v>
+        <v>11.1</v>
       </c>
       <c r="AB42">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="AC42">
-        <v>6.5</v>
+        <v>5.8</v>
       </c>
       <c r="AD42" t="s">
         <v>130</v>
@@ -4707,76 +4695,76 @@
         <v>20</v>
       </c>
       <c r="F44">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G44">
-        <v>961</v>
+        <v>76</v>
       </c>
       <c r="H44">
-        <v>32131</v>
+        <v>2767</v>
       </c>
       <c r="I44">
-        <v>4811</v>
+        <v>449</v>
       </c>
       <c r="J44">
-        <v>10393</v>
+        <v>1024</v>
       </c>
       <c r="K44">
-        <v>664</v>
+        <v>59</v>
       </c>
       <c r="L44">
-        <v>2126</v>
+        <v>164</v>
       </c>
       <c r="M44">
-        <v>2495</v>
+        <v>302</v>
       </c>
       <c r="N44">
-        <v>3599</v>
+        <v>420</v>
       </c>
       <c r="O44">
-        <v>1821</v>
+        <v>159</v>
       </c>
       <c r="P44">
-        <v>8059</v>
+        <v>595</v>
       </c>
       <c r="Q44">
-        <v>3554</v>
+        <v>317</v>
       </c>
       <c r="R44">
-        <v>848</v>
+        <v>91</v>
       </c>
       <c r="S44">
-        <v>892</v>
+        <v>95</v>
       </c>
       <c r="T44">
-        <v>2253</v>
+        <v>258</v>
       </c>
       <c r="U44">
-        <v>2916</v>
+        <v>291</v>
       </c>
       <c r="V44">
-        <v>12781</v>
+        <v>1259</v>
       </c>
       <c r="W44">
-        <v>0.463</v>
+        <v>0.438</v>
       </c>
       <c r="X44">
-        <v>0.312</v>
+        <v>0.36</v>
       </c>
       <c r="Y44">
-        <v>0.6929999999999999</v>
+        <v>0.719</v>
       </c>
       <c r="Z44">
-        <v>33.4</v>
+        <v>36.4</v>
       </c>
       <c r="AA44">
-        <v>13.3</v>
+        <v>16.6</v>
       </c>
       <c r="AB44">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="AC44">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="AD44" t="s">
         <v>130</v>
@@ -4799,76 +4787,76 @@
         <v>23</v>
       </c>
       <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>47</v>
+      </c>
+      <c r="H45">
+        <v>432</v>
+      </c>
+      <c r="I45">
+        <v>44</v>
+      </c>
+      <c r="J45">
+        <v>140</v>
+      </c>
+      <c r="K45">
+        <v>13</v>
+      </c>
+      <c r="L45">
+        <v>44</v>
+      </c>
+      <c r="M45">
+        <v>19</v>
+      </c>
+      <c r="N45">
+        <v>27</v>
+      </c>
+      <c r="O45">
+        <v>24</v>
+      </c>
+      <c r="P45">
+        <v>88</v>
+      </c>
+      <c r="Q45">
+        <v>25</v>
+      </c>
+      <c r="R45">
+        <v>14</v>
+      </c>
+      <c r="S45">
         <v>8</v>
       </c>
-      <c r="G45">
-        <v>448</v>
-      </c>
-      <c r="H45">
-        <v>5613</v>
-      </c>
-      <c r="I45">
-        <v>679</v>
-      </c>
-      <c r="J45">
-        <v>1658</v>
-      </c>
-      <c r="K45">
-        <v>240</v>
-      </c>
-      <c r="L45">
-        <v>644</v>
-      </c>
-      <c r="M45">
-        <v>276</v>
-      </c>
-      <c r="N45">
-        <v>375</v>
-      </c>
-      <c r="O45">
-        <v>402</v>
-      </c>
-      <c r="P45">
-        <v>1227</v>
-      </c>
-      <c r="Q45">
-        <v>325</v>
-      </c>
-      <c r="R45">
-        <v>182</v>
-      </c>
-      <c r="S45">
-        <v>86</v>
-      </c>
       <c r="T45">
-        <v>253</v>
+        <v>22</v>
       </c>
       <c r="U45">
-        <v>681</v>
+        <v>55</v>
       </c>
       <c r="V45">
-        <v>1874</v>
+        <v>120</v>
       </c>
       <c r="W45">
-        <v>0.41</v>
+        <v>0.314</v>
       </c>
       <c r="X45">
-        <v>0.373</v>
+        <v>0.295</v>
       </c>
       <c r="Y45">
-        <v>0.736</v>
+        <v>0.704</v>
       </c>
       <c r="Z45">
-        <v>12.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AA45">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="AB45">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
       <c r="AC45">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="AD45" t="s">
         <v>130</v>
@@ -4891,76 +4879,76 @@
         <v>21</v>
       </c>
       <c r="F46">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G46">
-        <v>470</v>
+        <v>53</v>
       </c>
       <c r="H46">
-        <v>8421</v>
+        <v>394</v>
       </c>
       <c r="I46">
-        <v>863</v>
+        <v>43</v>
       </c>
       <c r="J46">
-        <v>2060</v>
+        <v>98</v>
       </c>
       <c r="K46">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L46">
-        <v>170</v>
+        <v>2</v>
       </c>
       <c r="M46">
-        <v>477</v>
+        <v>22</v>
       </c>
       <c r="N46">
-        <v>663</v>
+        <v>37</v>
       </c>
       <c r="O46">
-        <v>159</v>
+        <v>17</v>
       </c>
       <c r="P46">
-        <v>831</v>
+        <v>51</v>
       </c>
       <c r="Q46">
-        <v>1194</v>
+        <v>48</v>
       </c>
       <c r="R46">
-        <v>302</v>
+        <v>20</v>
       </c>
       <c r="S46">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="T46">
-        <v>596</v>
+        <v>44</v>
       </c>
       <c r="U46">
-        <v>685</v>
+        <v>32</v>
       </c>
       <c r="V46">
-        <v>2243</v>
+        <v>108</v>
       </c>
       <c r="W46">
-        <v>0.419</v>
+        <v>0.439</v>
       </c>
       <c r="X46">
-        <v>0.235</v>
+        <v>0</v>
       </c>
       <c r="Y46">
-        <v>0.719</v>
+        <v>0.595</v>
       </c>
       <c r="Z46">
-        <v>17.9</v>
+        <v>7.4</v>
       </c>
       <c r="AA46">
-        <v>4.8</v>
+        <v>2</v>
       </c>
       <c r="AB46">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="AC46">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="AD46" t="s">
         <v>130</v>
@@ -4983,76 +4971,76 @@
         <v>23</v>
       </c>
       <c r="F47">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G47">
-        <v>864</v>
+        <v>81</v>
       </c>
       <c r="H47">
-        <v>23260</v>
+        <v>2052</v>
       </c>
       <c r="I47">
-        <v>2495</v>
+        <v>230</v>
       </c>
       <c r="J47">
-        <v>6091</v>
+        <v>536</v>
       </c>
       <c r="K47">
-        <v>1035</v>
+        <v>82</v>
       </c>
       <c r="L47">
-        <v>2967</v>
+        <v>220</v>
       </c>
       <c r="M47">
-        <v>1394</v>
+        <v>120</v>
       </c>
       <c r="N47">
-        <v>1701</v>
+        <v>150</v>
       </c>
       <c r="O47">
-        <v>755</v>
+        <v>85</v>
       </c>
       <c r="P47">
-        <v>4061</v>
+        <v>317</v>
       </c>
       <c r="Q47">
-        <v>1413</v>
+        <v>146</v>
       </c>
       <c r="R47">
-        <v>917</v>
+        <v>98</v>
       </c>
       <c r="S47">
-        <v>298</v>
+        <v>33</v>
       </c>
       <c r="T47">
-        <v>981</v>
+        <v>95</v>
       </c>
       <c r="U47">
-        <v>2330</v>
+        <v>207</v>
       </c>
       <c r="V47">
-        <v>7419</v>
+        <v>662</v>
       </c>
       <c r="W47">
-        <v>0.41</v>
+        <v>0.429</v>
       </c>
       <c r="X47">
-        <v>0.349</v>
+        <v>0.373</v>
       </c>
       <c r="Y47">
-        <v>0.82</v>
+        <v>0.8</v>
       </c>
       <c r="Z47">
-        <v>26.9</v>
+        <v>25.3</v>
       </c>
       <c r="AA47">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AB47">
-        <v>4.7</v>
+        <v>3.9</v>
       </c>
       <c r="AC47">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="AD47" t="s">
         <v>130</v>
@@ -5075,76 +5063,76 @@
         <v>22</v>
       </c>
       <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>33</v>
+      </c>
+      <c r="H48">
+        <v>225</v>
+      </c>
+      <c r="I48">
+        <v>21</v>
+      </c>
+      <c r="J48">
+        <v>59</v>
+      </c>
+      <c r="K48">
+        <v>3</v>
+      </c>
+      <c r="L48">
+        <v>17</v>
+      </c>
+      <c r="M48">
         <v>4</v>
       </c>
-      <c r="G48">
-        <v>135</v>
-      </c>
-      <c r="H48">
-        <v>1537</v>
-      </c>
-      <c r="I48">
-        <v>173</v>
-      </c>
-      <c r="J48">
-        <v>413</v>
-      </c>
-      <c r="K48">
-        <v>21</v>
-      </c>
-      <c r="L48">
-        <v>89</v>
-      </c>
-      <c r="M48">
-        <v>74</v>
-      </c>
       <c r="N48">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="O48">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="P48">
-        <v>209</v>
+        <v>26</v>
       </c>
       <c r="Q48">
-        <v>166</v>
+        <v>25</v>
       </c>
       <c r="R48">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="S48">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="T48">
-        <v>116</v>
+        <v>19</v>
       </c>
       <c r="U48">
-        <v>138</v>
+        <v>26</v>
       </c>
       <c r="V48">
-        <v>441</v>
+        <v>49</v>
       </c>
       <c r="W48">
-        <v>0.419</v>
+        <v>0.356</v>
       </c>
       <c r="X48">
-        <v>0.236</v>
+        <v>0.176</v>
       </c>
       <c r="Y48">
-        <v>0.712</v>
+        <v>0.4</v>
       </c>
       <c r="Z48">
-        <v>11.4</v>
+        <v>6.8</v>
       </c>
       <c r="AA48">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="AB48">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC48">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="AD48" t="s">
         <v>130</v>
@@ -5167,73 +5155,73 @@
         <v>23</v>
       </c>
       <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>3</v>
+      </c>
+      <c r="H49">
+        <v>24</v>
+      </c>
+      <c r="I49">
         <v>2</v>
       </c>
-      <c r="G49">
-        <v>15</v>
-      </c>
-      <c r="H49">
-        <v>152</v>
-      </c>
-      <c r="I49">
+      <c r="J49">
+        <v>7</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>3</v>
+      </c>
+      <c r="N49">
+        <v>6</v>
+      </c>
+      <c r="O49">
+        <v>2</v>
+      </c>
+      <c r="P49">
         <v>8</v>
       </c>
-      <c r="J49">
-        <v>26</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
-      <c r="M49">
-        <v>10</v>
-      </c>
-      <c r="N49">
-        <v>16</v>
-      </c>
-      <c r="O49">
-        <v>11</v>
-      </c>
-      <c r="P49">
-        <v>36</v>
-      </c>
       <c r="Q49">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R49">
         <v>2</v>
       </c>
       <c r="S49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T49">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="U49">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="V49">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="W49">
-        <v>0.308</v>
+        <v>0.286</v>
       </c>
       <c r="Y49">
-        <v>0.625</v>
+        <v>0.5</v>
       </c>
       <c r="Z49">
-        <v>10.1</v>
+        <v>8</v>
       </c>
       <c r="AA49">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="AB49">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="AC49">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AD49" t="s">
         <v>130</v>
@@ -5348,67 +5336,67 @@
         <v>23</v>
       </c>
       <c r="F51">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G51">
-        <v>278</v>
+        <v>67</v>
       </c>
       <c r="H51">
-        <v>5345</v>
+        <v>1112</v>
       </c>
       <c r="I51">
-        <v>852</v>
+        <v>212</v>
       </c>
       <c r="J51">
-        <v>1681</v>
+        <v>386</v>
       </c>
       <c r="K51">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L51">
+        <v>4</v>
+      </c>
+      <c r="M51">
+        <v>47</v>
+      </c>
+      <c r="N51">
+        <v>64</v>
+      </c>
+      <c r="O51">
+        <v>54</v>
+      </c>
+      <c r="P51">
+        <v>184</v>
+      </c>
+      <c r="Q51">
         <v>32</v>
       </c>
-      <c r="M51">
-        <v>226</v>
-      </c>
-      <c r="N51">
-        <v>306</v>
-      </c>
-      <c r="O51">
-        <v>241</v>
-      </c>
-      <c r="P51">
-        <v>764</v>
-      </c>
-      <c r="Q51">
-        <v>252</v>
-      </c>
       <c r="R51">
-        <v>216</v>
+        <v>48</v>
       </c>
       <c r="S51">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="T51">
-        <v>215</v>
+        <v>39</v>
       </c>
       <c r="U51">
-        <v>345</v>
+        <v>67</v>
       </c>
       <c r="V51">
-        <v>1938</v>
+        <v>471</v>
       </c>
       <c r="W51">
-        <v>0.507</v>
+        <v>0.549</v>
       </c>
       <c r="X51">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Y51">
-        <v>0.739</v>
+        <v>0.734</v>
       </c>
       <c r="Z51">
-        <v>19.2</v>
+        <v>16.6</v>
       </c>
       <c r="AA51">
         <v>7</v>
@@ -5417,7 +5405,7 @@
         <v>2.7</v>
       </c>
       <c r="AC51">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="AD51" t="s">
         <v>130</v>
@@ -5440,73 +5428,70 @@
         <v>23</v>
       </c>
       <c r="F52">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G52">
-        <v>414</v>
+        <v>71</v>
       </c>
       <c r="H52">
-        <v>5966</v>
+        <v>975</v>
       </c>
       <c r="I52">
-        <v>258</v>
+        <v>58</v>
       </c>
       <c r="J52">
-        <v>634</v>
+        <v>138</v>
       </c>
       <c r="K52">
         <v>0</v>
       </c>
       <c r="L52">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M52">
-        <v>200</v>
+        <v>43</v>
       </c>
       <c r="N52">
-        <v>436</v>
+        <v>88</v>
       </c>
       <c r="O52">
-        <v>729</v>
+        <v>117</v>
       </c>
       <c r="P52">
-        <v>1632</v>
+        <v>250</v>
       </c>
       <c r="Q52">
-        <v>250</v>
+        <v>44</v>
       </c>
       <c r="R52">
-        <v>199</v>
+        <v>26</v>
       </c>
       <c r="S52">
-        <v>193</v>
+        <v>26</v>
       </c>
       <c r="T52">
-        <v>273</v>
+        <v>59</v>
       </c>
       <c r="U52">
-        <v>942</v>
+        <v>170</v>
       </c>
       <c r="V52">
-        <v>716</v>
+        <v>159</v>
       </c>
       <c r="W52">
-        <v>0.407</v>
-      </c>
-      <c r="X52">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="Y52">
-        <v>0.459</v>
+        <v>0.489</v>
       </c>
       <c r="Z52">
-        <v>14.4</v>
+        <v>13.7</v>
       </c>
       <c r="AA52">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="AB52">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="AC52">
         <v>0.6</v>
@@ -5532,76 +5517,76 @@
         <v>22</v>
       </c>
       <c r="F53">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G53">
-        <v>651</v>
+        <v>73</v>
       </c>
       <c r="H53">
-        <v>20052</v>
+        <v>2171</v>
       </c>
       <c r="I53">
-        <v>3486</v>
+        <v>342</v>
       </c>
       <c r="J53">
-        <v>7193</v>
+        <v>669</v>
       </c>
       <c r="K53">
-        <v>590</v>
+        <v>28</v>
       </c>
       <c r="L53">
-        <v>1453</v>
+        <v>78</v>
       </c>
       <c r="M53">
-        <v>1633</v>
+        <v>133</v>
       </c>
       <c r="N53">
-        <v>1899</v>
+        <v>161</v>
       </c>
       <c r="O53">
-        <v>671</v>
+        <v>89</v>
       </c>
       <c r="P53">
-        <v>2602</v>
+        <v>272</v>
       </c>
       <c r="Q53">
-        <v>1532</v>
+        <v>201</v>
       </c>
       <c r="R53">
-        <v>388</v>
+        <v>58</v>
       </c>
       <c r="S53">
-        <v>160</v>
+        <v>23</v>
       </c>
       <c r="T53">
-        <v>970</v>
+        <v>83</v>
       </c>
       <c r="U53">
-        <v>1380</v>
+        <v>175</v>
       </c>
       <c r="V53">
-        <v>9195</v>
+        <v>845</v>
       </c>
       <c r="W53">
-        <v>0.485</v>
+        <v>0.511</v>
       </c>
       <c r="X53">
-        <v>0.406</v>
+        <v>0.359</v>
       </c>
       <c r="Y53">
-        <v>0.86</v>
+        <v>0.826</v>
       </c>
       <c r="Z53">
-        <v>30.8</v>
+        <v>29.7</v>
       </c>
       <c r="AA53">
-        <v>14.1</v>
+        <v>11.6</v>
       </c>
       <c r="AB53">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="AC53">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="AD53" t="s">
         <v>130</v>
@@ -5624,76 +5609,76 @@
         <v>22</v>
       </c>
       <c r="F54">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="G54">
-        <v>1410</v>
+        <v>81</v>
       </c>
       <c r="H54">
-        <v>42034</v>
+        <v>1888</v>
       </c>
       <c r="I54">
-        <v>6914</v>
+        <v>249</v>
       </c>
       <c r="J54">
-        <v>15585</v>
+        <v>600</v>
       </c>
       <c r="K54">
-        <v>2282</v>
+        <v>46</v>
       </c>
       <c r="L54">
-        <v>6010</v>
+        <v>157</v>
       </c>
       <c r="M54">
-        <v>2771</v>
+        <v>113</v>
       </c>
       <c r="N54">
-        <v>3278</v>
+        <v>140</v>
       </c>
       <c r="O54">
-        <v>502</v>
+        <v>24</v>
       </c>
       <c r="P54">
-        <v>3274</v>
+        <v>166</v>
       </c>
       <c r="Q54">
-        <v>5415</v>
+        <v>346</v>
       </c>
       <c r="R54">
-        <v>1603</v>
+        <v>90</v>
       </c>
       <c r="S54">
-        <v>275</v>
+        <v>10</v>
       </c>
       <c r="T54">
-        <v>2415</v>
+        <v>156</v>
       </c>
       <c r="U54">
-        <v>2577</v>
+        <v>133</v>
       </c>
       <c r="V54">
-        <v>18881</v>
+        <v>657</v>
       </c>
       <c r="W54">
-        <v>0.444</v>
+        <v>0.415</v>
       </c>
       <c r="X54">
-        <v>0.38</v>
+        <v>0.293</v>
       </c>
       <c r="Y54">
-        <v>0.845</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="Z54">
-        <v>29.8</v>
+        <v>23.3</v>
       </c>
       <c r="AA54">
-        <v>13.4</v>
+        <v>8.1</v>
       </c>
       <c r="AB54">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="AC54">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="AD54" t="s">
         <v>130</v>
@@ -5716,25 +5701,25 @@
         <v>26</v>
       </c>
       <c r="F55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G55">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H55">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="I55">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="J55">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="K55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L55">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M55">
         <v>1</v>
@@ -5743,49 +5728,49 @@
         <v>1</v>
       </c>
       <c r="O55">
+        <v>1</v>
+      </c>
+      <c r="P55">
         <v>5</v>
-      </c>
-      <c r="P55">
-        <v>14</v>
       </c>
       <c r="Q55">
         <v>6</v>
       </c>
       <c r="R55">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S55">
         <v>0</v>
       </c>
       <c r="T55">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="U55">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="V55">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="W55">
-        <v>0.378</v>
+        <v>0.444</v>
       </c>
       <c r="X55">
-        <v>0.167</v>
+        <v>0</v>
       </c>
       <c r="Y55">
         <v>1</v>
       </c>
       <c r="Z55">
-        <v>8.5</v>
+        <v>6.6</v>
       </c>
       <c r="AA55">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AB55">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="AC55">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="AD55" t="s">
         <v>130</v>
@@ -5808,76 +5793,76 @@
         <v>22</v>
       </c>
       <c r="F56">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G56">
-        <v>632</v>
+        <v>72</v>
       </c>
       <c r="H56">
-        <v>17306</v>
+        <v>1797</v>
       </c>
       <c r="I56">
-        <v>2309</v>
+        <v>212</v>
       </c>
       <c r="J56">
-        <v>4966</v>
+        <v>531</v>
       </c>
       <c r="K56">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="L56">
-        <v>242</v>
+        <v>122</v>
       </c>
       <c r="M56">
-        <v>1199</v>
+        <v>138</v>
       </c>
       <c r="N56">
-        <v>1715</v>
+        <v>209</v>
       </c>
       <c r="O56">
-        <v>1447</v>
+        <v>147</v>
       </c>
       <c r="P56">
-        <v>4341</v>
+        <v>437</v>
       </c>
       <c r="Q56">
-        <v>975</v>
+        <v>113</v>
       </c>
       <c r="R56">
-        <v>527</v>
+        <v>54</v>
       </c>
       <c r="S56">
-        <v>276</v>
+        <v>22</v>
       </c>
       <c r="T56">
-        <v>1054</v>
+        <v>112</v>
       </c>
       <c r="U56">
-        <v>1581</v>
+        <v>167</v>
       </c>
       <c r="V56">
-        <v>5876</v>
+        <v>594</v>
       </c>
       <c r="W56">
-        <v>0.465</v>
+        <v>0.399</v>
       </c>
       <c r="X56">
-        <v>0.244</v>
+        <v>0.262</v>
       </c>
       <c r="Y56">
-        <v>0.699</v>
+        <v>0.66</v>
       </c>
       <c r="Z56">
-        <v>27.4</v>
+        <v>25</v>
       </c>
       <c r="AA56">
-        <v>9.300000000000001</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AB56">
-        <v>6.9</v>
+        <v>6.1</v>
       </c>
       <c r="AC56">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AD56" t="s">
         <v>130</v>
@@ -6173,76 +6158,76 @@
         <v>20</v>
       </c>
       <c r="F60">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G60">
-        <v>991</v>
+        <v>72</v>
       </c>
       <c r="H60">
-        <v>31440</v>
+        <v>2238</v>
       </c>
       <c r="I60">
-        <v>4666</v>
+        <v>309</v>
       </c>
       <c r="J60">
-        <v>11266</v>
+        <v>759</v>
       </c>
       <c r="K60">
-        <v>1154</v>
+        <v>60</v>
       </c>
       <c r="L60">
-        <v>3402</v>
+        <v>191</v>
       </c>
       <c r="M60">
-        <v>2572</v>
+        <v>188</v>
       </c>
       <c r="N60">
-        <v>3596</v>
+        <v>279</v>
       </c>
       <c r="O60">
-        <v>1159</v>
+        <v>62</v>
       </c>
       <c r="P60">
-        <v>4448</v>
+        <v>308</v>
       </c>
       <c r="Q60">
-        <v>2631</v>
+        <v>202</v>
       </c>
       <c r="R60">
-        <v>1721</v>
+        <v>119</v>
       </c>
       <c r="S60">
-        <v>522</v>
+        <v>39</v>
       </c>
       <c r="T60">
-        <v>1791</v>
+        <v>166</v>
       </c>
       <c r="U60">
-        <v>2586</v>
+        <v>159</v>
       </c>
       <c r="V60">
-        <v>13058</v>
+        <v>866</v>
       </c>
       <c r="W60">
-        <v>0.414</v>
+        <v>0.407</v>
       </c>
       <c r="X60">
-        <v>0.339</v>
+        <v>0.314</v>
       </c>
       <c r="Y60">
-        <v>0.715</v>
+        <v>0.674</v>
       </c>
       <c r="Z60">
-        <v>31.7</v>
+        <v>31.1</v>
       </c>
       <c r="AA60">
-        <v>13.2</v>
+        <v>12</v>
       </c>
       <c r="AB60">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="AC60">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="AD60" t="s">
         <v>130</v>
